--- a/surge/etc/form/form_segment_2_to_end.xlsx
+++ b/surge/etc/form/form_segment_2_to_end.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>Stage</t>
   </si>
@@ -63,12 +63,6 @@
     <t>Elements</t>
   </si>
   <si>
-    <t>Race to the bottom</t>
-  </si>
-  <si>
-    <t>Transparency</t>
-  </si>
-  <si>
     <t>The Shade</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
   </si>
   <si>
     <t>Ankh</t>
-  </si>
-  <si>
-    <t>Rats in the Opera House</t>
   </si>
   <si>
     <t>Tempo</t>
@@ -944,7 +935,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="J5 E8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -952,10 +943,10 @@
     <col min="1" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="46" customFormat="1" ht="116" thickBot="1">
+    <row r="1" spans="1:11" s="46" customFormat="1" ht="75" thickBot="1">
       <c r="A1"/>
       <c r="B1" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>12</v>
@@ -963,23 +954,17 @@
       <c r="D1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="45" t="s">
         <v>16</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21" thickBot="1">
@@ -1052,7 +1037,7 @@
     </row>
     <row r="4" spans="1:11" ht="19" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="12">
         <v>52</v>
@@ -1104,7 +1089,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">

--- a/surge/etc/form/form_segment_2_to_end.xlsx
+++ b/surge/etc/form/form_segment_2_to_end.xlsx
@@ -935,7 +935,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/surge/etc/form/form_segment_2_to_end.xlsx
+++ b/surge/etc/form/form_segment_2_to_end.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-28800" yWindow="3160" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
-    <t>Stage</t>
-  </si>
-  <si>
     <t>Trombone</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Observer</t>
-  </si>
-  <si>
     <t>Elements</t>
   </si>
   <si>
@@ -79,6 +73,12 @@
   </si>
   <si>
     <t>Bass Clarinet</t>
+  </si>
+  <si>
+    <t>Stages</t>
+  </si>
+  <si>
+    <t>Three</t>
   </si>
 </sst>
 </file>
@@ -106,13 +106,6 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -132,6 +125,12 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,16 +462,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -480,129 +480,133 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,7 +939,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -943,354 +947,354 @@
     <col min="1" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="46" customFormat="1" ht="75" thickBot="1">
+    <row r="1" spans="1:11" s="44" customFormat="1" ht="75" thickBot="1">
       <c r="A1"/>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="52" customFormat="1" ht="19" thickBot="1">
+      <c r="A2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="B2" s="51">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="51">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="51">
+        <v>4</v>
+      </c>
+      <c r="E2" s="51">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="51">
+        <v>1</v>
+      </c>
+      <c r="G2" s="51">
+        <v>3</v>
+      </c>
+      <c r="H2" s="51">
+        <v>3</v>
+      </c>
+      <c r="I2" s="51">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
-        <v>5</v>
-      </c>
-      <c r="G2" s="11">
-        <v>6</v>
-      </c>
-      <c r="H2" s="11">
-        <v>7</v>
-      </c>
-      <c r="I2" s="11">
-        <v>8</v>
-      </c>
-      <c r="J2" s="11">
+      <c r="J2" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="19" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48">
+      <c r="B3" s="46">
         <v>3.125E-2</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="47">
         <v>5.2083333333333336E-2</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="47">
         <v>0.10416666666666667</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="47">
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="F3" s="49">
+      <c r="F3" s="47">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G3" s="49">
+      <c r="G3" s="47">
         <v>6.25E-2</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="47">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I3" s="49">
+      <c r="I3" s="47">
         <v>9.375E-2</v>
       </c>
-      <c r="J3" s="50">
+      <c r="J3" s="48">
         <v>3.125E-2</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="49">
         <f>SUM(B3:J3)</f>
         <v>0.55208333333333326</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="19" thickBot="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10">
+        <v>52</v>
+      </c>
+      <c r="C4" s="11">
+        <v>111</v>
+      </c>
+      <c r="D4" s="11">
+        <v>66</v>
+      </c>
+      <c r="E4" s="11">
+        <v>85</v>
+      </c>
+      <c r="F4" s="11">
+        <v>52</v>
+      </c>
+      <c r="G4" s="11">
+        <v>111</v>
+      </c>
+      <c r="H4" s="11">
+        <v>99</v>
+      </c>
+      <c r="I4" s="11">
+        <v>127</v>
+      </c>
+      <c r="J4" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12">
-        <v>52</v>
-      </c>
-      <c r="C4" s="13">
-        <v>111</v>
-      </c>
-      <c r="D4" s="13">
-        <v>66</v>
-      </c>
-      <c r="E4" s="13">
-        <v>85</v>
-      </c>
-      <c r="F4" s="13">
-        <v>52</v>
-      </c>
-      <c r="G4" s="13">
-        <v>111</v>
-      </c>
-      <c r="H4" s="13">
-        <v>99</v>
-      </c>
-      <c r="I4" s="13">
-        <v>127</v>
-      </c>
-      <c r="J4" s="14">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:11" ht="16" thickBot="1">
+      <c r="A8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="38"/>
-    </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1">
-      <c r="A8" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" thickBot="1">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
-      <c r="A14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35" t="s">
-        <v>11</v>
+      <c r="B14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="9:9">
-      <c r="I22" s="47"/>
+      <c r="I22" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/surge/etc/form/form_segment_2_to_end.xlsx
+++ b/surge/etc/form/form_segment_2_to_end.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="3160" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="4180" yWindow="1100" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>Stages</t>
   </si>
   <si>
-    <t>Three</t>
+    <t>Immaterial</t>
   </si>
 </sst>
 </file>
@@ -462,8 +462,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -602,11 +606,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,7 +947,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1298,6 +1306,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
